--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2018\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Варианты</t>
   </si>
@@ -76,30 +81,6 @@
   </si>
   <si>
     <t>Выполнение проекта (max 24)</t>
-  </si>
-  <si>
-    <t>Гринемайер Константин</t>
-  </si>
-  <si>
-    <t>Иванилов Артур</t>
-  </si>
-  <si>
-    <t>Попова Любовь</t>
-  </si>
-  <si>
-    <t>Прокопец Вероника</t>
-  </si>
-  <si>
-    <t>Строков Иван</t>
-  </si>
-  <si>
-    <t>Терещенко Анастасия</t>
-  </si>
-  <si>
-    <t>Чернецкая Мария</t>
-  </si>
-  <si>
-    <t>Щербаков Роман</t>
   </si>
 </sst>
 </file>
@@ -696,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,7 +712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,10 +924,10 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="W11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,94 +1053,46 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="39">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>8</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>9</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>10</v>
-      </c>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>24</v>
-      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="4">
         <f t="shared" ref="AA2:AA9" si="0">SUM(C2:Z2)</f>
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="5">
         <v>85</v>
       </c>
       <c r="AC2" s="10" t="str">
         <f t="shared" ref="AC2:AC4" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>Не удовл</v>
       </c>
       <c r="AD2" s="33" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>C+</v>
+        <v>Не удовл</v>
       </c>
       <c r="AE2" s="33" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1167,66 +1100,26 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="40">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="7">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
+      <c r="A3" s="42"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -1235,7 +1128,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="9">
         <v>85</v>
@@ -1254,183 +1147,93 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="40">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>7</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
+      <c r="A4" s="42"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
-        <v>15</v>
-      </c>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="8">
         <f t="shared" si="0"/>
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="9">
         <v>85</v>
       </c>
       <c r="AC4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>удовл</v>
+        <v>Не удовл</v>
       </c>
       <c r="AD4" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>E</v>
+        <v>Не удовл</v>
       </c>
       <c r="AE4" s="10" t="str">
-        <f t="shared" ref="AD4:AE6" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4:AE6" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="40">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>7</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>11</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>10</v>
-      </c>
+      <c r="A5" s="42"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>24</v>
-      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
       <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="9">
         <v>85</v>
       </c>
       <c r="AC5" s="10" t="str">
         <f>IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>Не удовл</v>
       </c>
       <c r="AD5" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>B-</v>
+        <v>Не удовл</v>
       </c>
       <c r="AE5" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1438,180 +1241,82 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="40">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>8</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>11</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>12</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="7">
-        <v>12</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>24</v>
-      </c>
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="8">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="9">
         <v>85</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" ref="AC6:AC9" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>отл</v>
+        <v>Не удовл</v>
       </c>
       <c r="AD6" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>А</v>
+        <v>Не удовл</v>
       </c>
       <c r="AE6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Зачет</v>
+        <v>Не зачет</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="40">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="7">
-        <v>8</v>
-      </c>
+      <c r="A7" s="42"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="9">
         <v>85</v>
@@ -1630,66 +1335,26 @@
       </c>
     </row>
     <row r="8" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="40">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>7</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -1698,7 +1363,7 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="9">
         <v>85</v>
@@ -1717,97 +1382,49 @@
       </c>
     </row>
     <row r="9" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="40">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>8</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>8</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>9</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="7">
-        <v>8</v>
-      </c>
+      <c r="A9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>24</v>
-      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="8">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="9">
         <v>85</v>
       </c>
       <c r="AC9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>хорошо</v>
+        <v>Не удовл</v>
       </c>
       <c r="AD9" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>B-</v>
+        <v>Не удовл</v>
       </c>
       <c r="AE9" s="10" t="str">
-        <f t="shared" ref="AD9:AE9" si="5" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE9" si="5" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -2249,7 +1866,7 @@
       <c r="AB23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
